--- a/MATLAB/Eingebunden/20160701_gemittelt_zusammengefasst_Auswertung_0508162.xlsx
+++ b/MATLAB/Eingebunden/20160701_gemittelt_zusammengefasst_Auswertung_0508162.xlsx
@@ -13,8 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="sen" sheetId="2" r:id="rId2"/>
-    <sheet name="lat" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle4" sheetId="6" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="5" r:id="rId3"/>
+    <sheet name="sen" sheetId="2" r:id="rId4"/>
+    <sheet name="lat" sheetId="3" r:id="rId5"/>
+    <sheet name="Vol" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
   <si>
     <t>Zeit</t>
   </si>
@@ -222,12 +225,42 @@
   <si>
     <t>Phiausx</t>
   </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>T-ZUL</t>
+  </si>
+  <si>
+    <t>T-FOL</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta ZUL</t>
+  </si>
+  <si>
+    <t>delta Fol</t>
+  </si>
+  <si>
+    <t>deltaTges</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +274,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,43 +309,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -611,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView topLeftCell="Y4" workbookViewId="0">
-      <selection sqref="A1:AM24"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3572,10 +3591,1560 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>225</v>
+      </c>
+      <c r="B2" s="3">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5.1184999999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>225</v>
+      </c>
+      <c r="B3" s="3">
+        <v>98</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.4379999999999988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>225</v>
+      </c>
+      <c r="B4" s="3">
+        <v>98</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.90499999999999048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>225</v>
+      </c>
+      <c r="B5" s="3">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5.0666666666666593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>225</v>
+      </c>
+      <c r="B6" s="3">
+        <v>98</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.1195238095238036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>225</v>
+      </c>
+      <c r="B7" s="3">
+        <v>98</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.4504166666666585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>225</v>
+      </c>
+      <c r="B8" s="3">
+        <v>98</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.4542857100000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>225</v>
+      </c>
+      <c r="B9" s="3">
+        <v>98</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4.1680952380952334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>225</v>
+      </c>
+      <c r="B10" s="3">
+        <v>98</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.7295000000000016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>225</v>
+      </c>
+      <c r="B11" s="3">
+        <v>98</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-8.4452380999999974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>225</v>
+      </c>
+      <c r="B12" s="3">
+        <v>98</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>29.069523807000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>225</v>
+      </c>
+      <c r="B13" s="3">
+        <v>98</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>29.058571428571426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>225</v>
+      </c>
+      <c r="B14" s="3">
+        <v>98</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>29.059545454545457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>225</v>
+      </c>
+      <c r="B15" s="3">
+        <v>98</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>28.999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>225</v>
+      </c>
+      <c r="B16" s="3">
+        <v>98</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>28.499500000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>225</v>
+      </c>
+      <c r="B17" s="3">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18.227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>225</v>
+      </c>
+      <c r="B18" s="3">
+        <v>98</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>18.1905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>225</v>
+      </c>
+      <c r="B19" s="3">
+        <v>98</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>18.139000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>225</v>
+      </c>
+      <c r="B20" s="3">
+        <v>98</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>18.350999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>225</v>
+      </c>
+      <c r="B21" s="3">
+        <v>98</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9.8280952399999979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>225</v>
+      </c>
+      <c r="B22" s="3">
+        <v>98</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>225</v>
+      </c>
+      <c r="B23" s="3">
+        <v>98</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9.3612500000000018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>225</v>
+      </c>
+      <c r="B24" s="3">
+        <v>98</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.7900000000000027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>225</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.21350000000000691</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.9599999999999973</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5.1184999999999992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>225</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.41549999999999798</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.8779999999999966</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9.4379999999999988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>225</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4.5499999999989882E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.12299999999999756</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.90499999999999048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>225</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.24095238095238614</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.95857142857142819</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5.0666666666666593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>225</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.26428571428571956</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.99999999999999645</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5.1195238095238036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>225</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>-9.5833333333342097E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.59999999999998721</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4.4504166666666585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>225</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>-0.13047618999999955</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.57619047000000023</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4.4542857100000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>225</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-8.5714285714278304E-2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.55666666666667197</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4.1680952380952334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>225</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.17299999999999827</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.88649999999999807</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4.7295000000000016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>225</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-9.2857139999999561E-2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-1.6161904800000002</v>
+      </c>
+      <c r="E34" s="3">
+        <v>-8.4452380999999974</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>225</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>-0.20666667000000061</v>
+      </c>
+      <c r="D35" s="3">
+        <v>6.9123809530000004</v>
+      </c>
+      <c r="E35" s="3">
+        <v>29.069523807000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>225</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-0.21476190476190737</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6.9114285714285728</v>
+      </c>
+      <c r="E36" s="3">
+        <v>29.058571428571426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>225</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-0.17954545454545645</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6.9386363636363644</v>
+      </c>
+      <c r="E37" s="3">
+        <v>29.059545454545457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>225</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-0.16714286000000023</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6.9466666670000006</v>
+      </c>
+      <c r="E38" s="3">
+        <v>28.999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>225</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-0.55850000000000222</v>
+      </c>
+      <c r="D39" s="3">
+        <v>7.3185000000000002</v>
+      </c>
+      <c r="E39" s="3">
+        <v>28.499500000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>225</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-0.7710000000000008</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3.2699999999999996</v>
+      </c>
+      <c r="E40" s="3">
+        <v>18.227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>225</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>-1.0024999999999995</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3.3285000000000009</v>
+      </c>
+      <c r="E41" s="3">
+        <v>18.1905</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>225</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>-0.69749999999999979</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3.6859999999999999</v>
+      </c>
+      <c r="E42" s="3">
+        <v>18.139000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>225</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-0.76900000000000013</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3.4400000000000004</v>
+      </c>
+      <c r="E43" s="3">
+        <v>18.350999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>225</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>-0.20714286000000115</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1.7609523799999991</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9.8280952399999979</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>225</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.19000000000000128</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.8244999999999987</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>225</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.21499999999999631</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1.7637499999999999</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9.3612500000000018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>225</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3.6500000000000199E-2</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.11550000000000082</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.7900000000000027</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>225</v>
+      </c>
+      <c r="B48" s="3">
+        <v>196</v>
+      </c>
+      <c r="C48" s="3">
+        <v>9.8000000000009635E-2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.48499999999999233</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5.1184999999999992</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>225</v>
+      </c>
+      <c r="B49" s="3">
+        <v>196</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.27550000000000097</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.98649999999999771</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9.4379999999999988</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>225</v>
+      </c>
+      <c r="B50" s="3">
+        <v>196</v>
+      </c>
+      <c r="C50" s="3">
+        <v>-0.11850000000000094</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3.1000000000005912E-2</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.90499999999999048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>225</v>
+      </c>
+      <c r="B51" s="3">
+        <v>196</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.11190476190476772</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.48238095238094658</v>
+      </c>
+      <c r="E51" s="3">
+        <v>5.0666666666666593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>225</v>
+      </c>
+      <c r="B52" s="3">
+        <v>196</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.14095238095238471</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.5042857142857109</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5.1195238095238036</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>225</v>
+      </c>
+      <c r="B53" s="3">
+        <v>196</v>
+      </c>
+      <c r="C53" s="3">
+        <v>-0.21083333333333343</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.10791666666665378</v>
+      </c>
+      <c r="E53" s="3">
+        <v>4.4504166666666585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>225</v>
+      </c>
+      <c r="B54" s="3">
+        <v>196</v>
+      </c>
+      <c r="C54" s="3">
+        <v>-0.23999999999999844</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.11952381000000045</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4.4542857100000006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>225</v>
+      </c>
+      <c r="B55" s="3">
+        <v>196</v>
+      </c>
+      <c r="C55" s="3">
+        <v>-0.14619047619047265</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.13761904761905086</v>
+      </c>
+      <c r="E55" s="3">
+        <v>4.1680952380952334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>225</v>
+      </c>
+      <c r="B56" s="3">
+        <v>196</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.14649999999999963</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.45949999999999847</v>
+      </c>
+      <c r="E56" s="3">
+        <v>4.7295000000000016</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>225</v>
+      </c>
+      <c r="B57" s="3">
+        <v>196</v>
+      </c>
+      <c r="C57" s="3">
+        <v>-8.9999999999999858E-2</v>
+      </c>
+      <c r="D57" s="3">
+        <v>-0.6457142900000008</v>
+      </c>
+      <c r="E57" s="3">
+        <v>-8.4452380999999974</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>225</v>
+      </c>
+      <c r="B58" s="3">
+        <v>196</v>
+      </c>
+      <c r="C58" s="3">
+        <v>-3.7361904789999993</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2.4633333340000001</v>
+      </c>
+      <c r="E58" s="3">
+        <v>29.069523807000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>225</v>
+      </c>
+      <c r="B59" s="3">
+        <v>196</v>
+      </c>
+      <c r="C59" s="3">
+        <v>-3.9004761904761933</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2.4961904761904763</v>
+      </c>
+      <c r="E59" s="3">
+        <v>29.058571428571426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>225</v>
+      </c>
+      <c r="B60" s="3">
+        <v>196</v>
+      </c>
+      <c r="C60" s="3">
+        <v>-3.9059090909090912</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2.543181818181818</v>
+      </c>
+      <c r="E60" s="3">
+        <v>29.059545454545457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>225</v>
+      </c>
+      <c r="B61" s="3">
+        <v>196</v>
+      </c>
+      <c r="C61" s="3">
+        <v>-3.7309523819999999</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2.7023809519999999</v>
+      </c>
+      <c r="E61" s="3">
+        <v>28.999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>225</v>
+      </c>
+      <c r="B62" s="3">
+        <v>196</v>
+      </c>
+      <c r="C62" s="3">
+        <v>-3.6395</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2.7850000000000001</v>
+      </c>
+      <c r="E62" s="3">
+        <v>28.499500000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>225</v>
+      </c>
+      <c r="B63" s="3">
+        <v>196</v>
+      </c>
+      <c r="C63" s="3">
+        <v>-1.3880000000000017</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.14650000000000052</v>
+      </c>
+      <c r="E63" s="3">
+        <v>18.227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>225</v>
+      </c>
+      <c r="B64" s="3">
+        <v>196</v>
+      </c>
+      <c r="C64" s="3">
+        <v>-1.5184999999999995</v>
+      </c>
+      <c r="D64" s="3">
+        <v>-0.21300000000000008</v>
+      </c>
+      <c r="E64" s="3">
+        <v>18.1905</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>225</v>
+      </c>
+      <c r="B65" s="3">
+        <v>196</v>
+      </c>
+      <c r="C65" s="3">
+        <v>-1.1264999999999983</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.2654999999999994</v>
+      </c>
+      <c r="E65" s="3">
+        <v>18.139000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>225</v>
+      </c>
+      <c r="B66" s="3">
+        <v>196</v>
+      </c>
+      <c r="C66" s="3">
+        <v>-1.3000000000000007</v>
+      </c>
+      <c r="D66" s="3">
+        <v>-0.22599999999999998</v>
+      </c>
+      <c r="E66" s="3">
+        <v>18.350999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>225</v>
+      </c>
+      <c r="B67" s="3">
+        <v>196</v>
+      </c>
+      <c r="C67" s="3">
+        <v>-0.92666666999999947</v>
+      </c>
+      <c r="D67" s="3">
+        <v>-0.48714286000000051</v>
+      </c>
+      <c r="E67" s="3">
+        <v>9.8280952399999979</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>225</v>
+      </c>
+      <c r="B68" s="3">
+        <v>196</v>
+      </c>
+      <c r="C68" s="3">
+        <v>-0.2970000000000006</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.63349999999999973</v>
+      </c>
+      <c r="E68" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>225</v>
+      </c>
+      <c r="B69" s="3">
+        <v>196</v>
+      </c>
+      <c r="C69" s="3">
+        <v>-0.21375000000000099</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.66749999999999865</v>
+      </c>
+      <c r="E69" s="3">
+        <v>9.3612500000000018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>225</v>
+      </c>
+      <c r="B70" s="3">
+        <v>196</v>
+      </c>
+      <c r="C70" s="3">
+        <v>-0.25349999999999895</v>
+      </c>
+      <c r="D70" s="3">
+        <v>-0.14999999999999858</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.7900000000000027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="N1:AM15"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>98</v>
+      </c>
+      <c r="O3">
+        <v>225</v>
+      </c>
+      <c r="P3">
+        <v>11.67857143</v>
+      </c>
+      <c r="Q3">
+        <v>7.947619048</v>
+      </c>
+      <c r="R3">
+        <v>11.51142857</v>
+      </c>
+      <c r="S3">
+        <v>9.65</v>
+      </c>
+      <c r="T3">
+        <v>6.8490476190000003</v>
+      </c>
+      <c r="U3">
+        <v>-1.03</v>
+      </c>
+      <c r="V3">
+        <v>1.6723809519999999</v>
+      </c>
+      <c r="W3">
+        <v>5.9166666670000003</v>
+      </c>
+      <c r="X3">
+        <v>-0.552857143</v>
+      </c>
+      <c r="Y3">
+        <v>-5.208571429</v>
+      </c>
+      <c r="Z3">
+        <v>1.4577385094214801E-2</v>
+      </c>
+      <c r="AA3">
+        <v>8.3542022085240294E-3</v>
+      </c>
+      <c r="AB3">
+        <v>1.8963488104146957</v>
+      </c>
+      <c r="AC3">
+        <v>1.0922187843907314</v>
+      </c>
+      <c r="AD3">
+        <v>0.48929492241467998</v>
+      </c>
+      <c r="AE3">
+        <v>0.60650246306401734</v>
+      </c>
+      <c r="AF3">
+        <v>0.10089974009582647</v>
+      </c>
+      <c r="AG3">
+        <v>10.312001605061596</v>
+      </c>
+      <c r="AH3">
+        <v>2.2681696094696037E-3</v>
+      </c>
+      <c r="AI3">
+        <v>4.9835346506229838E-3</v>
+      </c>
+      <c r="AJ3">
+        <v>-10.211101864965769</v>
+      </c>
+      <c r="AK3">
+        <v>5.2064506725787112</v>
+      </c>
+      <c r="AL3">
+        <v>-2.7153650411533801E-3</v>
+      </c>
+      <c r="AM3">
+        <v>3.6258521300462938E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>225</v>
+      </c>
+      <c r="P4">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="5" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>196</v>
+      </c>
+      <c r="O5">
+        <v>225</v>
+      </c>
+      <c r="P5">
+        <v>6.8490476190000003</v>
+      </c>
+    </row>
+    <row r="6" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>98</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>11.51142857</v>
+      </c>
+    </row>
+    <row r="7" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>98</v>
+      </c>
+      <c r="O7">
+        <v>250</v>
+      </c>
+      <c r="P7">
+        <v>7.947619048</v>
+      </c>
+    </row>
+    <row r="9" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="U9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W9" t="s">
+        <v>68</v>
+      </c>
+      <c r="X9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>98</v>
+      </c>
+      <c r="V10">
+        <v>225</v>
+      </c>
+      <c r="W10">
+        <v>11.67857143</v>
+      </c>
+      <c r="X10">
+        <v>-1.03</v>
+      </c>
+    </row>
+    <row r="11" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>98</v>
+      </c>
+      <c r="Q11">
+        <v>225</v>
+      </c>
+      <c r="R11">
+        <v>11.67857143</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>225</v>
+      </c>
+      <c r="W11">
+        <v>9.65</v>
+      </c>
+      <c r="X11">
+        <v>-0.55286000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>225</v>
+      </c>
+      <c r="R12">
+        <v>9.65</v>
+      </c>
+      <c r="U12">
+        <v>196</v>
+      </c>
+      <c r="V12">
+        <v>225</v>
+      </c>
+      <c r="W12">
+        <v>6.8490476190000003</v>
+      </c>
+      <c r="X12">
+        <v>-5.2085699999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>196</v>
+      </c>
+      <c r="Q13">
+        <v>225</v>
+      </c>
+      <c r="R13">
+        <v>6.8490476190000003</v>
+      </c>
+      <c r="U13">
+        <v>98</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>11.51142857</v>
+      </c>
+      <c r="X13">
+        <v>5.9166999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>98</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>11.51142857</v>
+      </c>
+      <c r="U14">
+        <v>98</v>
+      </c>
+      <c r="V14">
+        <v>250</v>
+      </c>
+      <c r="W14">
+        <v>7.947619048</v>
+      </c>
+      <c r="X14">
+        <v>1.6724000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>98</v>
+      </c>
+      <c r="Q15">
+        <v>250</v>
+      </c>
+      <c r="R15">
+        <v>7.947619048</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM13" workbookViewId="0">
-      <selection activeCell="AP24" sqref="A1:AP24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6795,7 +8364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -9633,4 +11202,873 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>16.380833333333332</v>
+      </c>
+      <c r="C2">
+        <v>20.83124999999999</v>
+      </c>
+      <c r="D2">
+        <v>19.764062499999998</v>
+      </c>
+      <c r="E2">
+        <v>17.364062499999999</v>
+      </c>
+      <c r="F2">
+        <v>20.00375</v>
+      </c>
+      <c r="G2">
+        <v>17.672083333333337</v>
+      </c>
+      <c r="H2">
+        <v>47.416265795691849</v>
+      </c>
+      <c r="I2">
+        <v>52.340189580692872</v>
+      </c>
+      <c r="J2">
+        <v>49.478097484168586</v>
+      </c>
+      <c r="K2">
+        <v>53.638111960025192</v>
+      </c>
+      <c r="L2">
+        <v>6.5540854245109284E-3</v>
+      </c>
+      <c r="M2">
+        <v>8.1959655453051495E-3</v>
+      </c>
+      <c r="N2">
+        <v>7.240246679973231E-3</v>
+      </c>
+      <c r="O2">
+        <v>6.7497025780294184E-3</v>
+      </c>
+      <c r="P2">
+        <v>20.052916666666668</v>
+      </c>
+      <c r="Q2">
+        <v>19.842083333333335</v>
+      </c>
+      <c r="R2">
+        <v>19.957083333333326</v>
+      </c>
+      <c r="S2">
+        <v>20.156250000000004</v>
+      </c>
+      <c r="T2">
+        <v>19.100833333333334</v>
+      </c>
+      <c r="U2">
+        <v>17.282916666666676</v>
+      </c>
+      <c r="V2">
+        <v>17.39083333333333</v>
+      </c>
+      <c r="W2">
+        <v>17.882916666666663</v>
+      </c>
+      <c r="X2">
+        <v>17.416666666666671</v>
+      </c>
+      <c r="Y2">
+        <v>16.76583333333333</v>
+      </c>
+      <c r="Z2">
+        <v>3.9220109504693207E-2</v>
+      </c>
+      <c r="AA2">
+        <v>5.616140707217783E-3</v>
+      </c>
+      <c r="AB2">
+        <v>5.5539054379355699</v>
+      </c>
+      <c r="AC2">
+        <v>0.79927038404487771</v>
+      </c>
+      <c r="AD2">
+        <v>0.41791190889770208</v>
+      </c>
+      <c r="AE2">
+        <v>0.76020503698155728</v>
+      </c>
+      <c r="AF2">
+        <v>18.069172544558</v>
+      </c>
+      <c r="AG2">
+        <v>19.094228363380125</v>
+      </c>
+      <c r="AH2">
+        <v>6.8914737587363242E-3</v>
+      </c>
+      <c r="AI2">
+        <v>7.4494501908986847E-3</v>
+      </c>
+      <c r="AJ2">
+        <v>-1.0250558188221248</v>
+      </c>
+      <c r="AK2">
+        <v>18.581700453969063</v>
+      </c>
+      <c r="AL2">
+        <v>-5.5797643216236054E-4</v>
+      </c>
+      <c r="AM2">
+        <v>7.170461974817504E-3</v>
+      </c>
+      <c r="AN2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>16.38</v>
+      </c>
+      <c r="C3">
+        <v>20.83428571</v>
+      </c>
+      <c r="D3">
+        <v>19.7602380975</v>
+      </c>
+      <c r="E3">
+        <v>17.38642857</v>
+      </c>
+      <c r="F3">
+        <v>20.019523809999999</v>
+      </c>
+      <c r="G3">
+        <v>17.676190479999999</v>
+      </c>
+      <c r="H3">
+        <v>30.703899284530376</v>
+      </c>
+      <c r="I3">
+        <v>53.117880166805669</v>
+      </c>
+      <c r="J3">
+        <v>43.492216489310209</v>
+      </c>
+      <c r="K3">
+        <v>44.866602712695396</v>
+      </c>
+      <c r="L3">
+        <v>4.2280651989893038E-3</v>
+      </c>
+      <c r="M3">
+        <v>8.3209489876806264E-3</v>
+      </c>
+      <c r="N3">
+        <v>6.3538446855650275E-3</v>
+      </c>
+      <c r="O3">
+        <v>5.6439621789982162E-3</v>
+      </c>
+      <c r="P3">
+        <v>20.077619049999999</v>
+      </c>
+      <c r="Q3">
+        <v>19.837619050000001</v>
+      </c>
+      <c r="R3">
+        <v>19.94714286</v>
+      </c>
+      <c r="S3">
+        <v>20.170476189999999</v>
+      </c>
+      <c r="T3">
+        <v>19.085714289999999</v>
+      </c>
+      <c r="U3">
+        <v>17.286190479999998</v>
+      </c>
+      <c r="V3">
+        <v>17.405714289999999</v>
+      </c>
+      <c r="W3">
+        <v>17.862380949999999</v>
+      </c>
+      <c r="X3">
+        <v>17.47380952</v>
+      </c>
+      <c r="Y3">
+        <v>16.803809520000001</v>
+      </c>
+      <c r="Z3">
+        <v>3.8313044604184103E-2</v>
+      </c>
+      <c r="AA3">
+        <v>8.7712936533000975E-3</v>
+      </c>
+      <c r="AB3">
+        <v>5.4380081715466755</v>
+      </c>
+      <c r="AC3">
+        <v>1.2511889590015701</v>
+      </c>
+      <c r="AD3">
+        <v>0.51938427679018706</v>
+      </c>
+      <c r="AE3">
+        <v>0.75887321056017332</v>
+      </c>
+      <c r="AF3">
+        <v>18.06684943942065</v>
+      </c>
+      <c r="AG3">
+        <v>19.106967516994132</v>
+      </c>
+      <c r="AH3">
+        <v>5.2189984110888512E-3</v>
+      </c>
+      <c r="AI3">
+        <v>6.8960740124352146E-3</v>
+      </c>
+      <c r="AJ3">
+        <v>-1.0401180775734815</v>
+      </c>
+      <c r="AK3">
+        <v>18.586908478207391</v>
+      </c>
+      <c r="AL3">
+        <v>-1.6770756013463634E-3</v>
+      </c>
+      <c r="AM3">
+        <v>6.0575362117620329E-3</v>
+      </c>
+      <c r="AN3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>16.340000000000003</v>
+      </c>
+      <c r="C4">
+        <v>20.508095238095237</v>
+      </c>
+      <c r="D4">
+        <v>19.54607142857143</v>
+      </c>
+      <c r="E4">
+        <v>17.332976190476192</v>
+      </c>
+      <c r="F4">
+        <v>19.844761904761899</v>
+      </c>
+      <c r="G4">
+        <v>17.635238095238094</v>
+      </c>
+      <c r="H4">
+        <v>30.90695650314542</v>
+      </c>
+      <c r="I4">
+        <v>74.866073922926887</v>
+      </c>
+      <c r="J4">
+        <v>57.613055740255739</v>
+      </c>
+      <c r="K4">
+        <v>54.591366299353275</v>
+      </c>
+      <c r="L4">
+        <v>4.243693014295463E-3</v>
+      </c>
+      <c r="M4">
+        <v>1.1553299724911514E-2</v>
+      </c>
+      <c r="N4">
+        <v>8.331673429658102E-3</v>
+      </c>
+      <c r="O4">
+        <v>6.8573390804122234E-3</v>
+      </c>
+      <c r="P4">
+        <v>19.810952380952376</v>
+      </c>
+      <c r="Q4">
+        <v>19.664761904761903</v>
+      </c>
+      <c r="R4">
+        <v>19.725238095238097</v>
+      </c>
+      <c r="S4">
+        <v>19.886190476190471</v>
+      </c>
+      <c r="T4">
+        <v>18.908095238095239</v>
+      </c>
+      <c r="U4">
+        <v>17.222857142857141</v>
+      </c>
+      <c r="V4">
+        <v>17.360476190476192</v>
+      </c>
+      <c r="W4">
+        <v>17.779523809523813</v>
+      </c>
+      <c r="X4">
+        <v>17.433333333333334</v>
+      </c>
+      <c r="Y4">
+        <v>16.758571428571425</v>
+      </c>
+      <c r="Z4">
+        <v>4.218837734394245E-2</v>
+      </c>
+      <c r="AA4">
+        <v>1.0519519535302264E-2</v>
+      </c>
+      <c r="AB4">
+        <v>5.9871377438335882</v>
+      </c>
+      <c r="AC4">
+        <v>1.5003355308751951</v>
+      </c>
+      <c r="AD4">
+        <v>0.55926133610245987</v>
+      </c>
+      <c r="AE4">
+        <v>0.76919341939906372</v>
+      </c>
+      <c r="AF4">
+        <v>17.940093076286246</v>
+      </c>
+      <c r="AG4">
+        <v>18.917659280011947</v>
+      </c>
+      <c r="AH4">
+        <v>6.0595848478791426E-3</v>
+      </c>
+      <c r="AI4">
+        <v>9.0021013273953784E-3</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.97756620372570069</v>
+      </c>
+      <c r="AK4">
+        <v>18.428876178149096</v>
+      </c>
+      <c r="AL4">
+        <v>-2.9425164795162358E-3</v>
+      </c>
+      <c r="AM4">
+        <v>7.5308430876372609E-3</v>
+      </c>
+      <c r="AN4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>15.780999999999997</v>
+      </c>
+      <c r="C6">
+        <v>20.899499999999996</v>
+      </c>
+      <c r="D6">
+        <v>19.123250000000002</v>
+      </c>
+      <c r="E6">
+        <v>17.279125000000001</v>
+      </c>
+      <c r="F6">
+        <v>19.271999999999998</v>
+      </c>
+      <c r="G6">
+        <v>17.414999999999999</v>
+      </c>
+      <c r="H6">
+        <v>50.202292575781648</v>
+      </c>
+      <c r="I6">
+        <v>51.58242728455761</v>
+      </c>
+      <c r="J6">
+        <v>48.471797823398525</v>
+      </c>
+      <c r="K6">
+        <v>55.965534687362272</v>
+      </c>
+      <c r="L6">
+        <v>6.6415234308272271E-3</v>
+      </c>
+      <c r="M6">
+        <v>8.1102067666571839E-3</v>
+      </c>
+      <c r="N6">
+        <v>6.8110651619002873E-3</v>
+      </c>
+      <c r="O6">
+        <v>7.0077171501208915E-3</v>
+      </c>
+      <c r="P6">
+        <v>19.322999999999997</v>
+      </c>
+      <c r="Q6">
+        <v>19.421000000000006</v>
+      </c>
+      <c r="R6">
+        <v>19.536500000000004</v>
+      </c>
+      <c r="S6">
+        <v>19.092999999999996</v>
+      </c>
+      <c r="T6">
+        <v>18.442500000000003</v>
+      </c>
+      <c r="U6">
+        <v>16.997000000000003</v>
+      </c>
+      <c r="V6">
+        <v>17.481999999999996</v>
+      </c>
+      <c r="W6">
+        <v>17.957000000000001</v>
+      </c>
+      <c r="X6">
+        <v>17.454499999999999</v>
+      </c>
+      <c r="Y6">
+        <v>16.222999999999999</v>
+      </c>
+      <c r="Z6">
+        <v>1.7420533590217765E-2</v>
+      </c>
+      <c r="AA6">
+        <v>9.4036775297352999E-4</v>
+      </c>
+      <c r="AB6">
+        <v>2.4615730465656633</v>
+      </c>
+      <c r="AC6">
+        <v>0.13354113535640411</v>
+      </c>
+      <c r="AD6">
+        <v>0.11543790750322072</v>
+      </c>
+      <c r="AE6">
+        <v>0.65297450424929293</v>
+      </c>
+      <c r="AF6">
+        <v>17.448921670140919</v>
+      </c>
+      <c r="AG6">
+        <v>19.085574909868171</v>
+      </c>
+      <c r="AH6">
+        <v>6.7259381614835634E-3</v>
+      </c>
+      <c r="AI6">
+        <v>7.54554287648422E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>-1.6366532397272522</v>
+      </c>
+      <c r="AK6">
+        <v>18.267248290004545</v>
+      </c>
+      <c r="AL6">
+        <v>-8.1960471500065659E-4</v>
+      </c>
+      <c r="AM6">
+        <v>7.1357405189838921E-3</v>
+      </c>
+      <c r="AN6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>15.824761904761907</v>
+      </c>
+      <c r="C7">
+        <v>20.891428571428566</v>
+      </c>
+      <c r="D7">
+        <v>19.143571428571427</v>
+      </c>
+      <c r="E7">
+        <v>17.322023809523809</v>
+      </c>
+      <c r="F7">
+        <v>19.335714285714282</v>
+      </c>
+      <c r="G7">
+        <v>17.485714285714288</v>
+      </c>
+      <c r="H7">
+        <v>33.358614595510623</v>
+      </c>
+      <c r="I7">
+        <v>52.168133342856372</v>
+      </c>
+      <c r="J7">
+        <v>40.478817145514192</v>
+      </c>
+      <c r="K7">
+        <v>49.844379393202082</v>
+      </c>
+      <c r="L7">
+        <v>4.4116924136112937E-3</v>
+      </c>
+      <c r="M7">
+        <v>8.199383452879596E-3</v>
+      </c>
+      <c r="N7">
+        <v>5.6849383609056808E-3</v>
+      </c>
+      <c r="O7">
+        <v>6.2506879776159669E-3</v>
+      </c>
+      <c r="P7">
+        <v>19.323333333333331</v>
+      </c>
+      <c r="Q7">
+        <v>19.435238095238098</v>
+      </c>
+      <c r="R7">
+        <v>19.564285714285717</v>
+      </c>
+      <c r="S7">
+        <v>19.10047619047619</v>
+      </c>
+      <c r="T7">
+        <v>18.474285714285713</v>
+      </c>
+      <c r="U7">
+        <v>17.042380952380956</v>
+      </c>
+      <c r="V7">
+        <v>17.524761904761903</v>
+      </c>
+      <c r="W7">
+        <v>18.000952380952384</v>
+      </c>
+      <c r="X7">
+        <v>17.494285714285713</v>
+      </c>
+      <c r="Y7">
+        <v>16.268095238095242</v>
+      </c>
+      <c r="Z7">
+        <v>1.753075617133823E-2</v>
+      </c>
+      <c r="AA7">
+        <v>3.872599002009806E-3</v>
+      </c>
+      <c r="AB7">
+        <v>2.4830232089598359</v>
+      </c>
+      <c r="AC7">
+        <v>0.55125014988171339</v>
+      </c>
+      <c r="AD7">
+        <v>0.33615359175133513</v>
+      </c>
+      <c r="AE7">
+        <v>0.65502819548872204</v>
+      </c>
+      <c r="AF7">
+        <v>17.48100846020958</v>
+      </c>
+      <c r="AG7">
+        <v>19.103093317983564</v>
+      </c>
+      <c r="AH7">
+        <v>5.0214402837082377E-3</v>
+      </c>
+      <c r="AI7">
+        <v>7.1810219998657485E-3</v>
+      </c>
+      <c r="AJ7">
+        <v>-1.6220848577739844</v>
+      </c>
+      <c r="AK7">
+        <v>18.292050889096572</v>
+      </c>
+      <c r="AL7">
+        <v>-2.1595817161575107E-3</v>
+      </c>
+      <c r="AM7">
+        <v>6.1012311417869931E-3</v>
+      </c>
+      <c r="AN7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>15.817</v>
+      </c>
+      <c r="C8">
+        <v>20.546500000000002</v>
+      </c>
+      <c r="D8">
+        <v>18.923749999999998</v>
+      </c>
+      <c r="E8">
+        <v>17.264249999999997</v>
+      </c>
+      <c r="F8">
+        <v>19.177499999999998</v>
+      </c>
+      <c r="G8">
+        <v>17.4345</v>
+      </c>
+      <c r="H8">
+        <v>32.718608708304643</v>
+      </c>
+      <c r="I8">
+        <v>72.326608949728111</v>
+      </c>
+      <c r="J8">
+        <v>49.55786129920974</v>
+      </c>
+      <c r="K8">
+        <v>61.002903644929788</v>
+      </c>
+      <c r="L8">
+        <v>4.3239793505385014E-3</v>
+      </c>
+      <c r="M8">
+        <v>1.1181325985238414E-2</v>
+      </c>
+      <c r="N8">
+        <v>6.8782159195807172E-3</v>
+      </c>
+      <c r="O8">
+        <v>7.6389419898933893E-3</v>
+      </c>
+      <c r="P8">
+        <v>19.111000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>19.2575</v>
+      </c>
+      <c r="R8">
+        <v>19.283999999999999</v>
+      </c>
+      <c r="S8">
+        <v>18.872</v>
+      </c>
+      <c r="T8">
+        <v>18.281500000000001</v>
+      </c>
+      <c r="U8">
+        <v>16.984000000000002</v>
+      </c>
+      <c r="V8">
+        <v>17.4435</v>
+      </c>
+      <c r="W8">
+        <v>17.8705</v>
+      </c>
+      <c r="X8">
+        <v>17.471</v>
+      </c>
+      <c r="Y8">
+        <v>16.271999999999998</v>
+      </c>
+      <c r="Z8">
+        <v>1.7642883451411791E-2</v>
+      </c>
+      <c r="AA8">
+        <v>4.5730523963186838E-3</v>
+      </c>
+      <c r="AB8">
+        <v>2.49905582132872</v>
+      </c>
+      <c r="AC8">
+        <v>0.65099646607956774</v>
+      </c>
+      <c r="AD8">
+        <v>0.37248176373601</v>
+      </c>
+      <c r="AE8">
+        <v>0.65688762025584035</v>
+      </c>
+      <c r="AF8">
+        <v>17.367606413592682</v>
+      </c>
+      <c r="AG8">
+        <v>18.902301023658026</v>
+      </c>
+      <c r="AH8">
+        <v>5.5026478309308877E-3</v>
+      </c>
+      <c r="AI8">
+        <v>9.2979385812312753E-3</v>
+      </c>
+      <c r="AJ8">
+        <v>-1.534694610065344</v>
+      </c>
+      <c r="AK8">
+        <v>18.134953718625354</v>
+      </c>
+      <c r="AL8">
+        <v>-3.7952907503003876E-3</v>
+      </c>
+      <c r="AM8">
+        <v>7.4002932060810815E-3</v>
+      </c>
+      <c r="AN8">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>